--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1,90 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Projetos programação\Horarios-CEFET\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF7ACE8-1384-4D9D-8AC2-407DB0C6842B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Professor</t>
-  </si>
-  <si>
-    <t>Materia</t>
-  </si>
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Preferencias</t>
-  </si>
-  <si>
-    <t>Limitacoes</t>
-  </si>
-  <si>
-    <t>MCT</t>
-  </si>
-  <si>
-    <t>ELT</t>
-  </si>
-  <si>
-    <t>MEC</t>
-  </si>
-  <si>
-    <t>João Rodrigues</t>
-  </si>
-  <si>
-    <t>Desenho Técnico</t>
-  </si>
-  <si>
-    <t>S3-N2-N6</t>
-  </si>
-  <si>
-    <t>Josivaldo Ferreira</t>
-  </si>
-  <si>
-    <t>Circuitos Elétricos 2</t>
-  </si>
-  <si>
-    <t>S3-S4</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,80 +420,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Professor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Materia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Preferencias</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Limitacoes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ELT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>MEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>João Rodrigues</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Desenho Técnico</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S3-N2-N6</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Josivaldo Ferreira</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Circuitos Elétricos 2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S3-S4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>taad</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>atav</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teste12</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>teste12</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Teste3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Teste3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S3-S2-N6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N5</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>aaaaa</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>aaaaaaa</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bbbbbb</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bbbb3</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S4-S2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N6</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>eadv</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>agvb</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>S2-N4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Programação\Projetos programação\Horarios-CEFET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9583FC3-D62B-4B64-BA83-39A80F9A189D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C8F7B3-829D-4EE2-871D-90C3C8E7D4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2115" windowWidth="15375" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Professor</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>S5</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +536,26 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Programação\Projetos programação\Horarios-CEFET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C8F7B3-829D-4EE2-871D-90C3C8E7D4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC28D01-B27A-4888-8A7C-636A5D36F715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Professor</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>S5</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Manha</t>
   </si>
 </sst>
 </file>
@@ -442,15 +448,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,101 +469,116 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
       <c r="G2">
         <v>2</v>
       </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
       <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2</v>
       </c>
     </row>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Ano</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Preferencias</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Limitacoes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MCT</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ELT</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MEC</t>
         </is>
@@ -478,30 +483,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>João Rodrigues</t>
+          <t>Joao Rodrigues</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Desenho Técnico</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>Desenho Tecnico</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Manha</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>S3-N2-N6</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -514,186 +524,64 @@
           <t>Circuitos Elétricos 2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Manha</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>S3-S4</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>taad</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>atav</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Manha</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>teste12</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>teste12</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Teste3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Teste3</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>S3-S2-N6</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N5</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>aaaaa</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>aaaaaaa</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>bbbbbb</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>bbbb3</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>S4-S2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N6</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>eadv</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>agvb</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>S2-N4</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Programação\Projetos programação\Horarios-CEFET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC28D01-B27A-4888-8A7C-636A5D36F715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904EE22D-1DCF-4D6E-BD95-489C77757124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Professor</t>
   </si>
@@ -86,6 +86,60 @@
   </si>
   <si>
     <t>Manha</t>
+  </si>
+  <si>
+    <t>Andre Lucca</t>
+  </si>
+  <si>
+    <t>Euclides</t>
+  </si>
+  <si>
+    <t>Gestão</t>
+  </si>
+  <si>
+    <t>S2-N5-N6</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Circuitos Elétricos</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>S5-S6</t>
+  </si>
+  <si>
+    <t>Tecnologia dos Materiais</t>
+  </si>
+  <si>
+    <t>José Ferreira</t>
+  </si>
+  <si>
+    <t>S5-S4</t>
+  </si>
+  <si>
+    <t>Usinagem</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Mecanica material</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>S5-S6-N2</t>
+  </si>
+  <si>
+    <t>Acionamentos</t>
+  </si>
+  <si>
+    <t>S3-N5-N6</t>
   </si>
 </sst>
 </file>
@@ -448,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,6 +636,185 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Programação\Projetos programação\Horarios-CEFET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904EE22D-1DCF-4D6E-BD95-489C77757124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1D2834-DBFB-4A7D-B728-B8B452F82BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Professor</t>
   </si>
@@ -140,6 +140,36 @@
   </si>
   <si>
     <t>S3-N5-N6</t>
+  </si>
+  <si>
+    <t>Programação</t>
+  </si>
+  <si>
+    <t>MTRM</t>
+  </si>
+  <si>
+    <t>Pedro Francisco</t>
+  </si>
+  <si>
+    <t>Sistemas digitais</t>
+  </si>
+  <si>
+    <t>Lucas Ferreira</t>
+  </si>
+  <si>
+    <t>S2-N5</t>
+  </si>
+  <si>
+    <t>Motores de aplicação</t>
+  </si>
+  <si>
+    <t>Jorge Aquino</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>N6</t>
   </si>
 </sst>
 </file>
@@ -502,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +596,9 @@
       <c r="H2">
         <v>2</v>
       </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -812,6 +845,104 @@
         <v>1</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
     </row>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Programação\Projetos programação\Horarios-CEFET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45562D1E-025F-4103-900E-9E5B5725A403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F37597A-E85F-4550-B82C-2B65F9EBF734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Professor</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>S5:2,3</t>
+  </si>
+  <si>
+    <t>N2:1,3</t>
   </si>
 </sst>
 </file>
@@ -556,7 +559,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +813,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H9">
         <v>2</v>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Programação\Projetos programação\Horarios-CEFET\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F37597A-E85F-4550-B82C-2B65F9EBF734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20475" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
   <si>
     <t>Professor</t>
   </si>
@@ -67,6 +62,9 @@
     <t>S3-N2-N6</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Josivaldo Ferreira</t>
   </si>
   <si>
@@ -88,66 +86,72 @@
     <t>N4</t>
   </si>
   <si>
+    <t>S5:2,3</t>
+  </si>
+  <si>
+    <t>Andre Lucca</t>
+  </si>
+  <si>
+    <t>Circuitos Elétricos</t>
+  </si>
+  <si>
+    <t>S5-S6</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Euclides</t>
+  </si>
+  <si>
+    <t>Gestão</t>
+  </si>
+  <si>
+    <t>S2-N5-N6</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>José Ferreira</t>
+  </si>
+  <si>
+    <t>Tecnologia dos Materiais</t>
+  </si>
+  <si>
+    <t>S5-S4</t>
+  </si>
+  <si>
+    <t>Usinagem</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>N2:1,3</t>
+  </si>
+  <si>
+    <t>Mecanica material</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>S5-S6-N2</t>
+  </si>
+  <si>
+    <t>Acionamentos</t>
+  </si>
+  <si>
+    <t>S3-N5-N6</t>
+  </si>
+  <si>
+    <t>Programação</t>
+  </si>
+  <si>
     <t>S5</t>
   </si>
   <si>
-    <t>Andre Lucca</t>
-  </si>
-  <si>
-    <t>Circuitos Elétricos</t>
-  </si>
-  <si>
-    <t>S5-S6</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>Euclides</t>
-  </si>
-  <si>
-    <t>Gestão</t>
-  </si>
-  <si>
-    <t>S2-N5-N6</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>José Ferreira</t>
-  </si>
-  <si>
-    <t>Tecnologia dos Materiais</t>
-  </si>
-  <si>
-    <t>S5-S4</t>
-  </si>
-  <si>
-    <t>Usinagem</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>Mecanica material</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>S5-S6-N2</t>
-  </si>
-  <si>
-    <t>Acionamentos</t>
-  </si>
-  <si>
-    <t>S3-N5-N6</t>
-  </si>
-  <si>
-    <t>Programação</t>
-  </si>
-  <si>
     <t>Pedro Francisco</t>
   </si>
   <si>
@@ -185,44 +189,380 @@
   </si>
   <si>
     <t>N5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>S5:2,3</t>
-  </si>
-  <si>
-    <t>N2:1,3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -245,9 +585,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -255,17 +837,61 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -550,21 +1176,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -615,6 +1241,9 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2">
         <v>2</v>
       </c>
@@ -625,12 +1254,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -642,7 +1271,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -650,13 +1282,16 @@
       <c r="I3">
         <v>3</v>
       </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -668,21 +1303,27 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -694,21 +1335,27 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -720,10 +1367,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -735,12 +1382,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -752,24 +1399,27 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
       <c r="J7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -781,24 +1431,27 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
       <c r="J8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -810,24 +1463,27 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
       <c r="J9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -839,21 +1495,27 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -865,21 +1527,27 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
       <c r="J11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -891,10 +1559,10 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -902,13 +1570,16 @@
       <c r="I12">
         <v>2</v>
       </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -920,18 +1591,27 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -943,24 +1623,27 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
       <c r="J14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -972,10 +1655,10 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -983,13 +1666,16 @@
       <c r="I15">
         <v>2</v>
       </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1001,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1012,13 +1698,16 @@
       <c r="I16">
         <v>2</v>
       </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1027,19 +1716,26 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>